--- a/project task sheet/find member module.xlsx
+++ b/project task sheet/find member module.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Project Name: Social module platform</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Not completed</t>
   </si>
 </sst>
 </file>
@@ -119,7 +116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,14 +172,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,23 +490,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -540,9 +537,7 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -551,9 +546,7 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/project task sheet/find member module.xlsx
+++ b/project task sheet/find member module.xlsx
@@ -121,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,15 +144,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -172,14 +163,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +476,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,18 +486,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -537,7 +528,7 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -546,7 +537,7 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
